--- a/medicine/Pharmacie/Nicorandil/Nicorandil.xlsx
+++ b/medicine/Pharmacie/Nicorandil/Nicorandil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nicorandil est une molécule utilisée dans le traitement de l'angine de poitrine.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a une double action d'activateur du canal potassique et donneur de NO[1], permettant une vasodilatation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a une double action d'activateur du canal potassique et donneur de NO, permettant une vasodilatation.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biodisponibilité, après absorption orale, est de 75% avec un pic plasmatique atteint avant une heure. Son métabolisme consiste en la perte du NO et l'entrée dans le cycle du nicotinamide[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biodisponibilité, après absorption orale, est de 75% avec un pic plasmatique atteint avant une heure. Son métabolisme consiste en la perte du NO et l'entrée dans le cycle du nicotinamide.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Donné par voie orale, il est aussi actif sur les symptômes de l'angine de poitrine que les dérivés nitrés[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donné par voie orale, il est aussi actif sur les symptômes de l'angine de poitrine que les dérivés nitrés.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet secondaire le plus fréquent sont les céphalées[4].
-Des ulcères buccaux[5] mais aussi au niveau d'autres muqueuses[6], peuvent survenir, régressif après l'arrêt du médicament.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet secondaire le plus fréquent sont les céphalées.
+Des ulcères buccaux mais aussi au niveau d'autres muqueuses, peuvent survenir, régressif après l'arrêt du médicament.
 </t>
         </is>
       </c>
